--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KRISHNENTHU\IdeaProjects\qalegendbilling\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477663FF-C702-4407-86CC-9E94ED30D9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB8314E-AB35-4082-B354-F847E29F5CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginPageTitle" sheetId="2" r:id="rId1"/>
-    <sheet name="LogInInvalid" sheetId="6" r:id="rId2"/>
-    <sheet name="ResetPassword" sheetId="4" r:id="rId3"/>
-    <sheet name="HomePageTitle" sheetId="3" r:id="rId4"/>
-    <sheet name="UsersPageTitle" sheetId="5" r:id="rId5"/>
+    <sheet name="LoginPage" sheetId="2" r:id="rId1"/>
+    <sheet name="ResetPage" sheetId="6" r:id="rId2"/>
+    <sheet name="HomePage" sheetId="3" r:id="rId3"/>
+    <sheet name="UsersPage" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,40 +28,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Login - Demo PO</t>
-  </si>
-  <si>
     <t>We can't find a user with that e-mail address.</t>
   </si>
   <si>
-    <t>Message</t>
-  </si>
-  <si>
     <t>Home - las</t>
   </si>
   <si>
-    <t xml:space="preserve">Users - las </t>
-  </si>
-  <si>
     <t>ErrorMessage</t>
   </si>
   <si>
     <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>Login - Demo POS</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>seleniumproject</t>
+  </si>
+  <si>
+    <t>test@1234</t>
+  </si>
+  <si>
+    <t>loggedin username</t>
+  </si>
+  <si>
+    <t>Krishna Gopal</t>
+  </si>
+  <si>
+    <t>loginerrormessage</t>
+  </si>
+  <si>
+    <t>Users - las</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,13 +110,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -370,16 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6DC727-B927-4E27-8CCE-47DDD9D4BF74}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -387,10 +415,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{B1C69629-6266-4247-A979-5A2F3C354FAE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -399,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76870F8C-2BBF-4A3B-968B-B92EAC97AD6D}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,10 +467,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -424,41 +479,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322E6851-F589-44BD-BD72-3BF242C95F4D}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2E37A7-C10B-4211-A2E8-F5BEFC768DB7}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="49.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2E37A7-C10B-4211-A2E8-F5BEFC768DB7}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -467,7 +497,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -475,22 +513,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F3C721-0DC0-412B-B0AA-43ED7584B3CA}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KRISHNENTHU\IdeaProjects\qalegendbilling\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB8314E-AB35-4082-B354-F847E29F5CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8E1FAF-844C-4A9C-A2A4-30AEAC763052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="2" r:id="rId1"/>
     <sheet name="ResetPage" sheetId="6" r:id="rId2"/>
     <sheet name="HomePage" sheetId="3" r:id="rId3"/>
     <sheet name="UsersPage" sheetId="5" r:id="rId4"/>
+    <sheet name="AddUsersPage" sheetId="7" r:id="rId5"/>
+    <sheet name="EditUserPage" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Title</t>
   </si>
@@ -70,6 +72,30 @@
   </si>
   <si>
     <t>Users - las</t>
+  </si>
+  <si>
+    <t>User added successfully</t>
+  </si>
+  <si>
+    <t>AddUserSuccessMessage</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
+  </si>
+  <si>
+    <t>SearchWithInvalidDataMessage</t>
+  </si>
+  <si>
+    <t>Add user - las</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
+  </si>
+  <si>
+    <t>EmailFieldErrorMessage</t>
+  </si>
+  <si>
+    <t>Edit user - las</t>
   </si>
 </sst>
 </file>
@@ -400,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6DC727-B927-4E27-8CCE-47DDD9D4BF74}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +509,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,14 +541,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F3C721-0DC0-412B-B0AA-43ED7584B3CA}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -534,6 +561,83 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEECCF17-DC41-4C52-A4D8-4B6AD6F0B9F2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADF701-6D49-4EBF-8C67-0562C875EEB7}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
